--- a/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,711 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,319 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005774</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9720</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>56.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2649</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008422</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融研发创新混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0513</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008423</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融研发创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+      <c r="D3" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1476,64 +1222,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.8</v>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.47</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>2.8</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -515,6 +532,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1216,7 +2201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688281-华秦科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>9.039999999999999</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>2.8</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -532,6 +549,1846 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015902</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>017288</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011543</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加科瑞混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015903</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011544</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中加科瑞混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1499,7 +3356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2201,7 +4058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
